--- a/0. document/1. 강좌서류/첨부 1. 실무중심산학협력프로젝트_팀명단 제출 양식(2019-1학기).xlsx
+++ b/0. document/1. 강좌서류/첨부 1. 실무중심산학협력프로젝트_팀명단 제출 양식(2019-1학기).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ACFD1F-6CB9-4E43-9276-4ED4FA1632E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8739A45F-A344-4DA4-A4CE-F924F00D7193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="1110" windowWidth="16650" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="1710" windowWidth="16650" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="과제물 샘블 보관" sheetId="2" r:id="rId1"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>박은영(대표), 류다인, 김장현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박은영 bey4314@naver.com 01023154483</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,7 +77,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하이파이브(HighFive)</t>
+    <t>CEO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박은영(대표)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +971,7 @@
   <dimension ref="C1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
@@ -1024,19 +1024,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="J4" s="11"/>
     </row>
